--- a/node_data_upload/aac_plant_reports.xlsx
+++ b/node_data_upload/aac_plant_reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manis_qrjodvo\Documents\GitHub\aac_neo_poc\node_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D7A7A8-FB7D-48C7-B48B-B498C215D2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11952CD8-032D-4557-8332-B0D55B8A7537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="7470" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35880" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Batching " sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,9 +1029,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,15 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
@@ -1217,6 +1199,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,7 +1502,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N4" sqref="N4:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1511,30 +1517,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1544,10 +1550,10 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="102"/>
+      <c r="N2" s="98"/>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -1587,7 +1593,7 @@
       <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="123" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -1634,7 +1640,7 @@
       <c r="L4" s="9">
         <v>3</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="124">
         <v>2.8</v>
       </c>
       <c r="N4" s="60">
@@ -1681,7 +1687,7 @@
       <c r="L5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="125">
         <v>3</v>
       </c>
       <c r="N5" s="35">
@@ -1728,7 +1734,7 @@
       <c r="L6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="70">
+      <c r="M6" s="125">
         <v>2.75</v>
       </c>
       <c r="N6" s="35">
@@ -1775,7 +1781,7 @@
       <c r="L7" s="9">
         <v>3</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="125">
         <v>2.85</v>
       </c>
       <c r="N7" s="35">
@@ -1822,7 +1828,7 @@
       <c r="L8" s="9">
         <v>3</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="125">
         <v>3</v>
       </c>
       <c r="N8" s="35">
@@ -1869,7 +1875,7 @@
       <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="125">
         <v>2.95</v>
       </c>
       <c r="N9" s="35">
@@ -1916,7 +1922,7 @@
       <c r="L10" s="9">
         <v>3</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="125">
         <v>2.79</v>
       </c>
       <c r="N10" s="35">
@@ -1963,7 +1969,7 @@
       <c r="L11" s="9">
         <v>3</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="125">
         <v>3</v>
       </c>
       <c r="N11" s="35">
@@ -2010,7 +2016,7 @@
       <c r="L12" s="9">
         <v>3</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="125">
         <v>3</v>
       </c>
       <c r="N12" s="35">
@@ -2057,7 +2063,7 @@
       <c r="L13" s="9">
         <v>3</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="125">
         <v>3</v>
       </c>
       <c r="N13" s="35">
@@ -2104,7 +2110,7 @@
       <c r="L14" s="9">
         <v>3</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="125">
         <v>3</v>
       </c>
       <c r="N14" s="35">
@@ -2151,7 +2157,7 @@
       <c r="L15" s="9">
         <v>3</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="125">
         <v>3</v>
       </c>
       <c r="N15" s="35">
@@ -2198,7 +2204,7 @@
       <c r="L16" s="9">
         <v>3</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="125">
         <v>3</v>
       </c>
       <c r="N16" s="35">
@@ -2245,7 +2251,7 @@
       <c r="L17" s="9">
         <v>3</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="125">
         <v>2.98</v>
       </c>
       <c r="N17" s="35">
@@ -2292,7 +2298,7 @@
       <c r="L18" s="9">
         <v>3</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="125">
         <v>3</v>
       </c>
       <c r="N18" s="35">
@@ -2339,7 +2345,7 @@
       <c r="L19" s="9">
         <v>3</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="125">
         <v>2.79</v>
       </c>
       <c r="N19" s="35">
@@ -2386,7 +2392,7 @@
       <c r="L20" s="9">
         <v>3</v>
       </c>
-      <c r="M20" s="70">
+      <c r="M20" s="125">
         <v>2.84</v>
       </c>
       <c r="N20" s="35">
@@ -2433,7 +2439,7 @@
       <c r="L21" s="9">
         <v>3</v>
       </c>
-      <c r="M21" s="70">
+      <c r="M21" s="125">
         <v>2.85</v>
       </c>
       <c r="N21" s="35">
@@ -2472,49 +2478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="26">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1">
-      <c r="A3" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="62" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2947,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2961,72 +2967,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
     </row>
     <row r="2" spans="1:7" ht="26">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="62" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29">
-      <c r="A3" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57">
+      <c r="A4" s="37">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1520</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="37">
         <v>70.099999999999994</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="35">
         <v>0.27394444444444399</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="37">
         <v>140</v>
       </c>
     </row>
@@ -3046,7 +3052,7 @@
       <c r="E5" s="37">
         <v>70</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="35">
         <v>0.27741666666666698</v>
       </c>
       <c r="G5" s="37">
@@ -3057,7 +3063,7 @@
       <c r="A6" s="37">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1522</v>
       </c>
       <c r="C6" s="8">
@@ -3069,7 +3075,7 @@
       <c r="E6" s="37">
         <v>70.2</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="35">
         <v>0.28019444444444402</v>
       </c>
       <c r="G6" s="37">
@@ -3083,7 +3089,7 @@
       <c r="B7" s="8">
         <v>1523</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>22</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -3092,7 +3098,7 @@
       <c r="E7" s="37">
         <v>72</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="35">
         <v>0.274166666666667</v>
       </c>
       <c r="G7" s="37">
@@ -3103,7 +3109,7 @@
       <c r="A8" s="37">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1524</v>
       </c>
       <c r="C8" s="8">
@@ -3115,7 +3121,7 @@
       <c r="E8" s="37">
         <v>70.099999999999994</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="35">
         <v>0.28852777777777799</v>
       </c>
       <c r="G8" s="37">
@@ -3138,7 +3144,7 @@
       <c r="E9" s="37">
         <v>67</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="35">
         <v>0.29749999999999999</v>
       </c>
       <c r="G9" s="37">
@@ -3149,10 +3155,10 @@
       <c r="A10" s="37">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1526</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>32</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -3161,7 +3167,7 @@
       <c r="E10" s="37">
         <v>69.099999999999994</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="35">
         <v>0.29547222222222203</v>
       </c>
       <c r="G10" s="37">
@@ -3184,7 +3190,7 @@
       <c r="E11" s="37">
         <v>70.2</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="35">
         <v>0.29963888888888901</v>
       </c>
       <c r="G11" s="37">
@@ -3195,7 +3201,7 @@
       <c r="A12" s="37">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1528</v>
       </c>
       <c r="C12" s="8">
@@ -3207,7 +3213,7 @@
       <c r="E12" s="37">
         <v>72</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="35">
         <v>0.29430555555555599</v>
       </c>
       <c r="G12" s="37">
@@ -3221,7 +3227,7 @@
       <c r="B13" s="8">
         <v>1529</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -3230,7 +3236,7 @@
       <c r="E13" s="37">
         <v>70</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="35">
         <v>0.30727777777777798</v>
       </c>
       <c r="G13" s="37">
@@ -3241,7 +3247,7 @@
       <c r="A14" s="37">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1530</v>
       </c>
       <c r="C14" s="8">
@@ -3253,7 +3259,7 @@
       <c r="E14" s="37">
         <v>70.3</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="35">
         <v>0.31144444444444402</v>
       </c>
       <c r="G14" s="37">
@@ -3276,7 +3282,7 @@
       <c r="E15" s="37">
         <v>65</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="35">
         <v>0.32041666666666702</v>
       </c>
       <c r="G15" s="37">
@@ -3287,10 +3293,10 @@
       <c r="A16" s="37">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1532</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>23</v>
       </c>
       <c r="D16" s="37" t="s">
@@ -3299,7 +3305,7 @@
       <c r="E16" s="37">
         <v>69.5</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="35">
         <v>0.318388888888889</v>
       </c>
       <c r="G16" s="37">
@@ -3322,7 +3328,7 @@
       <c r="E17" s="37">
         <v>73</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="35">
         <v>0.31305555555555598</v>
       </c>
       <c r="G17" s="37">
@@ -3333,7 +3339,7 @@
       <c r="A18" s="37">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1534</v>
       </c>
       <c r="C18" s="8">
@@ -3345,7 +3351,7 @@
       <c r="E18" s="37">
         <v>65</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="35">
         <v>0.33222222222222197</v>
       </c>
       <c r="G18" s="37">
@@ -3359,7 +3365,7 @@
       <c r="B19" s="8">
         <v>1535</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3368,7 +3374,7 @@
       <c r="E19" s="37">
         <v>70.400000000000006</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="35">
         <v>0.33019444444444401</v>
       </c>
       <c r="G19" s="37">
@@ -3379,7 +3385,7 @@
       <c r="A20" s="37">
         <v>17</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1536</v>
       </c>
       <c r="C20" s="8">
@@ -3391,7 +3397,7 @@
       <c r="E20" s="37">
         <v>70.2</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="35">
         <v>0.333666666666667</v>
       </c>
       <c r="G20" s="37">
@@ -3414,7 +3420,7 @@
       <c r="E21" s="37">
         <v>70.5</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="35">
         <v>0.33713888888888899</v>
       </c>
       <c r="G21" s="37">
@@ -3455,30 +3461,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="26.5" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3489,55 +3495,55 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="106"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:15" ht="44" thickBot="1">
-      <c r="A3" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="96" t="s">
+      <c r="M3" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="68" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4020,7 +4026,7 @@
       <c r="E19" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="67">
         <v>0</v>
       </c>
       <c r="G19" s="61"/>
@@ -4108,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7E9A0-90E2-4745-9973-3A7DC9097E91}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -4141,136 +4147,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
     </row>
     <row r="2" spans="1:26" ht="26">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Y2" s="109" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Y2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="110"/>
+      <c r="Z2" s="106"/>
     </row>
     <row r="3" spans="1:26" ht="72.5">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="85" t="s">
+      <c r="O3" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="86" t="s">
+      <c r="T3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="86" t="s">
+      <c r="U3" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="85" t="s">
+      <c r="X3" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="92" t="s">
+      <c r="Z3" s="88" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4278,10 +4284,10 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="35">
@@ -4294,67 +4300,67 @@
       <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="83">
         <v>0.38472222222222224</v>
       </c>
       <c r="I4" s="37">
         <v>-0.4</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="83">
         <v>0.3888888888888889</v>
       </c>
       <c r="K4" s="37">
         <v>-0.4</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="83">
         <v>0.43402777777777779</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="81">
         <v>0.03</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="83">
         <v>0.50069444444444444</v>
       </c>
       <c r="O4" s="37">
         <v>11.5</v>
       </c>
-      <c r="P4" s="88">
+      <c r="P4" s="84">
         <v>0.73055555555555551</v>
       </c>
       <c r="Q4" s="10">
         <v>10.5</v>
       </c>
-      <c r="R4" s="88">
+      <c r="R4" s="84">
         <v>0.79166666666666663</v>
       </c>
       <c r="S4" s="10">
         <v>0</v>
       </c>
-      <c r="T4" s="88">
+      <c r="T4" s="84">
         <f>F4-D4</f>
         <v>3.1250000000000333E-2</v>
       </c>
-      <c r="U4" s="88">
+      <c r="U4" s="84">
         <f>H4-F4</f>
         <v>2.0138888888888928E-2</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="88">
+      <c r="X4" s="84">
         <f>N4-J4</f>
         <v>0.11180555555555555</v>
       </c>
-      <c r="Y4" s="88">
+      <c r="Y4" s="84">
         <f>P4-N4</f>
         <v>0.22986111111111107</v>
       </c>
-      <c r="Z4" s="88">
+      <c r="Z4" s="84">
         <f>R4-D4</f>
         <v>0.45833333333333365</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="L10" s="78"/>
+      <c r="L10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4404,45 +4410,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="111"/>
     </row>
     <row r="2" spans="1:30" ht="26.5" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4467,101 +4473,101 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="102" t="s">
+      <c r="AB2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="102"/>
+      <c r="AC2" s="98"/>
       <c r="AD2" s="15"/>
     </row>
     <row r="3" spans="1:30" ht="51" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="K3" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="M3" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="N3" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="95" t="s">
+      <c r="O3" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="95" t="s">
+      <c r="P3" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="95" t="s">
+      <c r="S3" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="95" t="s">
+      <c r="T3" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W3" s="95" t="s">
+      <c r="W3" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="X3" s="95" t="s">
+      <c r="X3" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="Y3" s="95" t="s">
+      <c r="Y3" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="Z3" s="95" t="s">
+      <c r="Z3" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="AA3" s="95" t="s">
+      <c r="AA3" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="AB3" s="95" t="s">
+      <c r="AB3" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="AC3" s="95" t="s">
+      <c r="AC3" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="AD3" s="95" t="s">
+      <c r="AD3" s="91" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6270,34 +6276,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="116"/>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:12" ht="26">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:12" ht="26">
       <c r="A3" s="19" t="s">
@@ -6318,11 +6324,11 @@
       <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" ht="15.5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="22" t="s">
         <v>37</v>
       </c>
@@ -6353,7 +6359,7 @@
       <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="115" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="29">
@@ -6396,7 +6402,7 @@
       <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="119"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="29">
         <f>'1. Batching '!B13</f>
         <v>1529</v>
@@ -6469,7 +6475,7 @@
       <c r="F9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="77" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="29" t="s">
@@ -6758,70 +6764,70 @@
       <c r="A22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="69" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="H22" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="73" t="s">
+      <c r="N22" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="73" t="s">
+      <c r="O22" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="73" t="s">
+      <c r="P22" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="79" t="s">
+      <c r="Q22" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="R22" s="79" t="s">
+      <c r="R22" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="S22" s="79" t="s">
+      <c r="S22" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="T22" s="79" t="s">
+      <c r="T22" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="U22" s="75" t="s">
+      <c r="U22" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="V22" s="73" t="s">
+      <c r="V22" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="W22" s="73" t="s">
+      <c r="W22" s="69" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6836,59 +6842,59 @@
       <c r="D23" s="44">
         <v>0</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="72">
         <v>0.38472222222222224</v>
       </c>
       <c r="F23" s="44">
         <v>-0.4</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="72">
         <v>0.3888888888888889</v>
       </c>
       <c r="H23" s="44">
         <v>-0.4</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="72">
         <v>0.43402777777777779</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="73">
         <v>0.03</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="72">
         <v>0.50069444444444444</v>
       </c>
       <c r="L23" s="44">
         <v>11.5</v>
       </c>
-      <c r="M23" s="78">
+      <c r="M23" s="74">
         <v>0.73055555555555551</v>
       </c>
       <c r="N23">
         <v>10.5</v>
       </c>
-      <c r="O23" s="78">
+      <c r="O23" s="74">
         <v>0.79166666666666663</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="80">
+      <c r="Q23" s="76">
         <f>C23-A23</f>
         <v>3.1250000000000333E-2</v>
       </c>
-      <c r="R23" s="78">
+      <c r="R23" s="74">
         <f>E23-C23</f>
         <v>2.0138888888888928E-2</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="74">
         <f>K23-G23</f>
         <v>0.11180555555555555</v>
       </c>
-      <c r="V23" s="78">
+      <c r="V23" s="74">
         <f>M23-K23</f>
         <v>0.22986111111111107</v>
       </c>
-      <c r="W23" s="78">
+      <c r="W23" s="74">
         <f>O23-A23</f>
         <v>0.45833333333333365</v>
       </c>
@@ -6958,7 +6964,7 @@
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="X29" s="90"/>
+      <c r="X29" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7004,44 +7010,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="111"/>
     </row>
     <row r="2" spans="1:29" ht="26">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7065,10 +7071,10 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="102" t="s">
+      <c r="AA2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="102"/>
+      <c r="AB2" s="98"/>
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:29">
@@ -7084,24 +7090,24 @@
       <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="121">
         <v>1</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="125">
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121">
         <v>2</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="125">
-        <v>3</v>
-      </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="126"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="121">
+        <v>3</v>
+      </c>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
       <c r="Q3" s="13">
         <v>4</v>
       </c>
@@ -7125,10 +7131,10 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
@@ -8797,37 +8803,37 @@
       <c r="D24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="123">
+      <c r="E24" s="119">
         <f>252*18</f>
         <v>4536</v>
       </c>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
     </row>
     <row r="25" spans="1:29">
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="123">
+      <c r="E25" s="119">
         <f>AC23</f>
         <v>259</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
     </row>
     <row r="26" spans="1:29">
       <c r="D26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="124">
+      <c r="E26" s="120">
         <f>E25/E24</f>
         <v>5.7098765432098797E-2</v>
       </c>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="10">
